--- a/5060Ti vs 3060Ti Results.xlsx
+++ b/5060Ti vs 3060Ti Results.xlsx
@@ -3,7 +3,11 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="TOTAL AVERAGE" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="RESNET RESULTS" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="DISTILBERT RESULTS" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="YOLOv8n RESULTS" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="YOLOv8m RESULTS" sheetId="5" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -11,7 +15,421 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1404" uniqueCount="291">
+  <si>
+    <t>RTX 5060Ti (16GB) (Capped at 8GB VRAM) (Average 3 Runs)</t>
+  </si>
+  <si>
+    <t>RTX 3060Ti (8GB) (Average 3 Runs)</t>
+  </si>
+  <si>
+    <t>ResNet-152</t>
+  </si>
+  <si>
+    <t>Metric</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Notes / Source</t>
+  </si>
+  <si>
+    <t>GPU Model</t>
+  </si>
+  <si>
+    <t>NVIDIA GeForce RTX 5060 Ti (VRAM Cap at 8GB)</t>
+  </si>
+  <si>
+    <t>Gigabyte AERO</t>
+  </si>
+  <si>
+    <t>NVIDIA Geforce RTX 3060 Ti (8GB)</t>
+  </si>
+  <si>
+    <t>Zotac Twin Edge</t>
+  </si>
+  <si>
+    <t>Image Resolution</t>
+  </si>
+  <si>
+    <t>420 × 420 (letterboxed)</t>
+  </si>
+  <si>
+    <t>Batch Size</t>
+  </si>
+  <si>
+    <t>AMP enabled</t>
+  </si>
+  <si>
+    <t>Epochs</t>
+  </si>
+  <si>
+    <t>Fixed across GPUs</t>
+  </si>
+  <si>
+    <t>Throughput (img/s)</t>
+  </si>
+  <si>
+    <t>56.6 imgs/s</t>
+  </si>
+  <si>
+    <t>Average across all epochs</t>
+  </si>
+  <si>
+    <t>43.20 img/s</t>
+  </si>
+  <si>
+    <t>Total Training Time</t>
+  </si>
+  <si>
+    <t>67.34 min</t>
+  </si>
+  <si>
+    <t>Full 30-epoch run</t>
+  </si>
+  <si>
+    <t>81.51 min</t>
+  </si>
+  <si>
+    <t>Avg VRAM Usage</t>
+  </si>
+  <si>
+    <t>4.5 GB</t>
+  </si>
+  <si>
+    <t>Task Manager / HWINFO</t>
+  </si>
+  <si>
+    <t>4.33 GB</t>
+  </si>
+  <si>
+    <t>Avg GPU Utilization</t>
+  </si>
+  <si>
+    <t>HWiNFO “GPU Core Load Avg”</t>
+  </si>
+  <si>
+    <t>Avg Power Consumption</t>
+  </si>
+  <si>
+    <t>96.87 W</t>
+  </si>
+  <si>
+    <t>HWiNFO</t>
+  </si>
+  <si>
+    <t>171.68 W</t>
+  </si>
+  <si>
+    <t>Performance/Watt</t>
+  </si>
+  <si>
+    <t>0.584 img/s/W</t>
+  </si>
+  <si>
+    <t>59.8 ÷ 103.358</t>
+  </si>
+  <si>
+    <t>0.251 img/s/W</t>
+  </si>
+  <si>
+    <t>Best Validation Accuracy</t>
+  </si>
+  <si>
+    <t>From training log</t>
+  </si>
+  <si>
+    <t>MSRP (USD)</t>
+  </si>
+  <si>
+    <t>Price at Time of Purchase</t>
+  </si>
+  <si>
+    <t>Second Hand Price (USD)</t>
+  </si>
+  <si>
+    <t>MSRP (PHP)</t>
+  </si>
+  <si>
+    <t>₱30,000 (approx.)</t>
+  </si>
+  <si>
+    <t>Using ~₱58/USD</t>
+  </si>
+  <si>
+    <t>Second Hand Price (PHP)</t>
+  </si>
+  <si>
+    <t>₱13,000 (approx.)</t>
+  </si>
+  <si>
+    <t>Performance/USD</t>
+  </si>
+  <si>
+    <t>0.110 img/s/USD</t>
+  </si>
+  <si>
+    <t>0.197 img/s/USD</t>
+  </si>
+  <si>
+    <t>Performance/PHP</t>
+  </si>
+  <si>
+    <t>0.00189 img/s/PHP</t>
+  </si>
+  <si>
+    <t>0.00332 img/s/PHP</t>
+  </si>
+  <si>
+    <t>DistilBERT</t>
+  </si>
+  <si>
+    <t>Dataset</t>
+  </si>
+  <si>
+    <t>AG News (10,000-sample training subset)</t>
+  </si>
+  <si>
+    <t>10k Samples Selected</t>
+  </si>
+  <si>
+    <t>Sequence Length</t>
+  </si>
+  <si>
+    <t>128 tokens</t>
+  </si>
+  <si>
+    <t>Standard for AG News fine-tuning</t>
+  </si>
+  <si>
+    <t>Throughput (samples/s)</t>
+  </si>
+  <si>
+    <t>283.33 samples/s</t>
+  </si>
+  <si>
+    <t>Average across all 30 epochs</t>
+  </si>
+  <si>
+    <t>223.67 samples/s</t>
+  </si>
+  <si>
+    <t>18.06 minutes</t>
+  </si>
+  <si>
+    <t>25.29 minutes</t>
+  </si>
+  <si>
+    <t>6.7 GB</t>
+  </si>
+  <si>
+    <t>Task Manager / HWInfo</t>
+  </si>
+  <si>
+    <t>98.67 %</t>
+  </si>
+  <si>
+    <t>HWInfo “GPU Core Load Avg”</t>
+  </si>
+  <si>
+    <t>98.0 %</t>
+  </si>
+  <si>
+    <t>162.09 W</t>
+  </si>
+  <si>
+    <t>HWInfo</t>
+  </si>
+  <si>
+    <t>182.99 W</t>
+  </si>
+  <si>
+    <t>1.748 samples/s/W</t>
+  </si>
+  <si>
+    <t>(Avg throughput 2,920 / 162 W)</t>
+  </si>
+  <si>
+    <t>1.223 samples/s/W</t>
+  </si>
+  <si>
+    <t>USD 517</t>
+  </si>
+  <si>
+    <t>PHP 30,000</t>
+  </si>
+  <si>
+    <t>₱13,000</t>
+  </si>
+  <si>
+    <t>0.548 samples/s/USD</t>
+  </si>
+  <si>
+    <t>2,920 / 429</t>
+  </si>
+  <si>
+    <t>1.017 samples/s/USD</t>
+  </si>
+  <si>
+    <t>0.00944 samples/s/PHP</t>
+  </si>
+  <si>
+    <t>2,920 / 24,900</t>
+  </si>
+  <si>
+    <t>0.01726 samples/s/PHP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YOLOV8n </t>
+  </si>
+  <si>
+    <t>COCO 5k subset (4,000 train / 1,000 val)</t>
+  </si>
+  <si>
+    <t>From COCO val2017, 80/20 split</t>
+  </si>
+  <si>
+    <t>512 × 512</t>
+  </si>
+  <si>
+    <t>Stable YOLO config</t>
+  </si>
+  <si>
+    <t>512 x 512</t>
+  </si>
+  <si>
+    <t>Standard YOLO input size</t>
+  </si>
+  <si>
+    <t>Pilot / benchmark run</t>
+  </si>
+  <si>
+    <t>158.30 img/s</t>
+  </si>
+  <si>
+    <t>From training log (approx throughput)</t>
+  </si>
+  <si>
+    <t>151.55 img/s</t>
+  </si>
+  <si>
+    <t>12.66 minutes</t>
+  </si>
+  <si>
+    <t>From training output (13m 18.9s)</t>
+  </si>
+  <si>
+    <t>13.66 minutes</t>
+  </si>
+  <si>
+    <t>~3.7 GB</t>
+  </si>
+  <si>
+    <t>Task Manager + HWINFO</t>
+  </si>
+  <si>
+    <t>~3.6 GB</t>
+  </si>
+  <si>
+    <t>65 %</t>
+  </si>
+  <si>
+    <t>HWINFO “GPU Core Load Avg”</t>
+  </si>
+  <si>
+    <t>~97 %</t>
+  </si>
+  <si>
+    <t>83.27 W</t>
+  </si>
+  <si>
+    <t>HWINFO GPU Power (avg)</t>
+  </si>
+  <si>
+    <t>145.88 W</t>
+  </si>
+  <si>
+    <t>1.90 img/s/W</t>
+  </si>
+  <si>
+    <t>1.04 img/s/W</t>
+  </si>
+  <si>
+    <t>Best mAP50–95</t>
+  </si>
+  <si>
+    <t>Primary detection metric (higher is better)</t>
+  </si>
+  <si>
+    <t>Price at time of purchase</t>
+  </si>
+  <si>
+    <t>₱30,000</t>
+  </si>
+  <si>
+    <t>Using ≈₱58/USD</t>
+  </si>
+  <si>
+    <t>0.306 img/s/USD</t>
+  </si>
+  <si>
+    <t>0.692 img/s/USD</t>
+  </si>
+  <si>
+    <t>0.00527 img/s/PHP</t>
+  </si>
+  <si>
+    <t>0.01171 img/s/PHP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YOLOV8m </t>
+  </si>
+  <si>
+    <t>YOLOV8m</t>
+  </si>
+  <si>
+    <t>640 x 640</t>
+  </si>
+  <si>
+    <t>50.90 imgs/s</t>
+  </si>
+  <si>
+    <t>37.14 imgs/s</t>
+  </si>
+  <si>
+    <t>39.30 minutes</t>
+  </si>
+  <si>
+    <t>53.40 minutes</t>
+  </si>
+  <si>
+    <t>7.81 GB</t>
+  </si>
+  <si>
+    <t>123.88 W</t>
+  </si>
+  <si>
+    <t>183.37 W</t>
+  </si>
+  <si>
+    <t>0.413 img/s/W</t>
+  </si>
+  <si>
+    <t>0.202 img/s/W</t>
+  </si>
+  <si>
+    <t>0.0981 img/s/USD</t>
+  </si>
+  <si>
+    <t>0.172 img/s/USD</t>
+  </si>
+  <si>
+    <t>0.00169 img/s/PHP</t>
+  </si>
+  <si>
+    <t>0.00290 img/s/PHP</t>
+  </si>
   <si>
     <t>RTX 5060Ti (16GB) (Capped at 8GB VRAM)</t>
   </si>
@@ -19,195 +437,129 @@
     <t>RTX 3060Ti (8GB)</t>
   </si>
   <si>
-    <t>ResNet-152</t>
-  </si>
-  <si>
-    <t>Metric</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>Notes / Source</t>
-  </si>
-  <si>
-    <t>GPU Model</t>
-  </si>
-  <si>
-    <t>NVIDIA GeForce RTX 5060 Ti (VRAM Cap at 8GB)</t>
-  </si>
-  <si>
-    <t>Gigabyte AERO</t>
-  </si>
-  <si>
-    <t>NVIDIA Geforce RTX 3060 Ti (8GB)</t>
-  </si>
-  <si>
-    <t>Zotac Twin Edge</t>
-  </si>
-  <si>
-    <t>Image Resolution</t>
-  </si>
-  <si>
-    <t>420 × 420 (letterboxed)</t>
-  </si>
-  <si>
-    <t>Batch Size</t>
-  </si>
-  <si>
-    <t>AMP enabled</t>
-  </si>
-  <si>
-    <t>Epochs</t>
-  </si>
-  <si>
-    <t>Fixed across GPUs</t>
-  </si>
-  <si>
-    <t>Throughput (img/s)</t>
+    <t>ResNet-152 (Run 1)</t>
   </si>
   <si>
     <t>56.7 imgs/s</t>
   </si>
   <si>
-    <t>Average across all epochs</t>
-  </si>
-  <si>
     <t>43.1 img/s</t>
   </si>
   <si>
-    <t>Total Training Time</t>
-  </si>
-  <si>
     <t>67.03 min</t>
   </si>
   <si>
-    <t>Full 30-epoch run</t>
-  </si>
-  <si>
     <t>81.30 minutes</t>
   </si>
   <si>
-    <t>Avg VRAM Usage</t>
-  </si>
-  <si>
-    <t>4.5 GB</t>
-  </si>
-  <si>
-    <t>Task Manager / HWINFO</t>
-  </si>
-  <si>
     <t>4.3 GB</t>
   </si>
   <si>
-    <t>Avg GPU Utilization</t>
-  </si>
-  <si>
-    <t>HWiNFO “GPU Core Load Avg”</t>
-  </si>
-  <si>
-    <t>Avg Power Consumption</t>
-  </si>
-  <si>
     <t>96.6 W</t>
   </si>
   <si>
-    <t>HWiNFO</t>
-  </si>
-  <si>
     <t>171.66 W</t>
   </si>
   <si>
-    <t>Performance/Watt</t>
-  </si>
-  <si>
-    <t>0.587 img/s per Watt</t>
-  </si>
-  <si>
-    <t>59.8 ÷ 103.358</t>
+    <t>0.587 img/s/W</t>
   </si>
   <si>
     <t>0.251 images/s per Watt</t>
   </si>
   <si>
-    <t>Best Validation Accuracy</t>
-  </si>
-  <si>
-    <t>From training log</t>
-  </si>
-  <si>
-    <t>MSRP (USD)</t>
-  </si>
-  <si>
-    <t>Price at Time of Purchase</t>
-  </si>
-  <si>
-    <t>Second Hand Price (USD)</t>
-  </si>
-  <si>
-    <t>MSRP (PHP)</t>
-  </si>
-  <si>
-    <t>₱30,000 (approx.)</t>
-  </si>
-  <si>
-    <t>Using ~₱58/USD</t>
-  </si>
-  <si>
-    <t>Second Hand Price (PHP)</t>
-  </si>
-  <si>
-    <t>₱13,000 (approx.)</t>
-  </si>
-  <si>
-    <t>Performance/USD</t>
-  </si>
-  <si>
-    <t>0.110 img/s per USD</t>
-  </si>
-  <si>
     <t>0.196 img/s per USD</t>
   </si>
   <si>
-    <t>Performance/PHP</t>
-  </si>
-  <si>
-    <t>0.00189 img/s per PHP</t>
-  </si>
-  <si>
     <t>0.00332 img/s per PHP</t>
   </si>
   <si>
-    <t>DistilBERT</t>
-  </si>
-  <si>
-    <t>Dataset</t>
-  </si>
-  <si>
-    <t>AG News (10,000-sample training subset)</t>
-  </si>
-  <si>
-    <t>10k Samples Selected</t>
-  </si>
-  <si>
-    <t>Sequence Length</t>
-  </si>
-  <si>
-    <t>128 tokens</t>
-  </si>
-  <si>
-    <t>Standard for AG News fine-tuning</t>
-  </si>
-  <si>
-    <t>Throughput (samples/s)</t>
+    <t>ResNet-152 (Run 2)</t>
+  </si>
+  <si>
+    <t>55.9 imgs/s</t>
+  </si>
+  <si>
+    <t>43.7 img/s</t>
+  </si>
+  <si>
+    <t>68.17  min</t>
+  </si>
+  <si>
+    <t>81.11 minutes</t>
+  </si>
+  <si>
+    <t>4.4 GB</t>
+  </si>
+  <si>
+    <t>95.81 W</t>
+  </si>
+  <si>
+    <t>173.76 W</t>
+  </si>
+  <si>
+    <t>0.583 img/s/W</t>
+  </si>
+  <si>
+    <t>0.108 img/s/USD</t>
+  </si>
+  <si>
+    <t>0.199 img/s/USD</t>
+  </si>
+  <si>
+    <t>0.00186 img/s/PHP</t>
+  </si>
+  <si>
+    <t>0.00336 img/s/PHP</t>
+  </si>
+  <si>
+    <t>ResNet-152 (Run 3)</t>
+  </si>
+  <si>
+    <t>57.2 imgs/s</t>
+  </si>
+  <si>
+    <t>42.81 img/s</t>
+  </si>
+  <si>
+    <t>66.82 min</t>
+  </si>
+  <si>
+    <t>82.13 minutes</t>
+  </si>
+  <si>
+    <t>79.3 %</t>
+  </si>
+  <si>
+    <t>98.21 W</t>
+  </si>
+  <si>
+    <t>169.62 W</t>
+  </si>
+  <si>
+    <t>0.582 img/s/W</t>
+  </si>
+  <si>
+    <t>0.252 img/s/W</t>
+  </si>
+  <si>
+    <t>0.111 img/s/USD</t>
+  </si>
+  <si>
+    <t>0.195 img/s/USD</t>
+  </si>
+  <si>
+    <t>0.00191 img/s/PHP</t>
+  </si>
+  <si>
+    <t>0.00329 img/s/PHP</t>
+  </si>
+  <si>
+    <t>DistilBERT (Run 1)</t>
   </si>
   <si>
     <t>283 samples/s</t>
   </si>
   <si>
-    <t>Average across all 30 epochs</t>
-  </si>
-  <si>
     <t>224 samples/s</t>
   </si>
   <si>
@@ -217,114 +569,123 @@
     <t>~22.9 minutes</t>
   </si>
   <si>
-    <t>6.7 GB</t>
-  </si>
-  <si>
-    <t>Task Manager / HWInfo</t>
-  </si>
-  <si>
-    <t>HWInfo “GPU Core Load Avg”</t>
-  </si>
-  <si>
     <t>162.6 W</t>
   </si>
   <si>
-    <t>HWInfo</t>
-  </si>
-  <si>
     <t>182.3 W</t>
   </si>
   <si>
     <t>~1.74 samples/s per Watt</t>
   </si>
   <si>
-    <t>(Avg throughput 2,920 / 162 W)</t>
-  </si>
-  <si>
     <t>1.23 samples/s per Watt</t>
   </si>
   <si>
     <t>0.547 samples/s per USD</t>
   </si>
   <si>
-    <t>2,920 / 429</t>
-  </si>
-  <si>
     <t>1.018 samples/s per USD</t>
   </si>
   <si>
     <t>0.00943 samples/s per PHP</t>
   </si>
   <si>
-    <t>2,920 / 24,900</t>
-  </si>
-  <si>
     <t>0.01723 samples/s per PHP</t>
   </si>
   <si>
-    <t xml:space="preserve">YOLOV8n </t>
-  </si>
-  <si>
-    <t>COCO 5k subset (4,000 train / 1,000 val)</t>
-  </si>
-  <si>
-    <t>From COCO val2017, 80/20 split</t>
-  </si>
-  <si>
-    <t>512 × 512</t>
-  </si>
-  <si>
-    <t>Stable YOLO config</t>
-  </si>
-  <si>
-    <t>512 x 512</t>
-  </si>
-  <si>
-    <t>Standard YOLO input size</t>
-  </si>
-  <si>
-    <t>Pilot / benchmark run</t>
+    <t>DistilBERT (Run 2)</t>
+  </si>
+  <si>
+    <t>284 samples/s</t>
+  </si>
+  <si>
+    <t>222 samples/s</t>
+  </si>
+  <si>
+    <t>18.3 mins</t>
+  </si>
+  <si>
+    <t>30.12 minutes</t>
+  </si>
+  <si>
+    <t>162.93 W</t>
+  </si>
+  <si>
+    <t>180.74 W</t>
+  </si>
+  <si>
+    <t>1.743 samples/s/W</t>
+  </si>
+  <si>
+    <t>0.549 samples/s/USD</t>
+  </si>
+  <si>
+    <t>1.009 samples/s/USD</t>
+  </si>
+  <si>
+    <t>0.00947 samples/s/PHP</t>
+  </si>
+  <si>
+    <t>0.01723 samples/s/PHP</t>
+  </si>
+  <si>
+    <t>DistilBERT (Run 3)</t>
+  </si>
+  <si>
+    <t>225 samples/s</t>
+  </si>
+  <si>
+    <t>17.89 mins</t>
+  </si>
+  <si>
+    <t>~22.85 minutes</t>
+  </si>
+  <si>
+    <t>160.73 W</t>
+  </si>
+  <si>
+    <t>185.92 W</t>
+  </si>
+  <si>
+    <t>1.761 samples/s/W</t>
+  </si>
+  <si>
+    <t>1.210 samples/s/W</t>
+  </si>
+  <si>
+    <t>0.547 samples/s/USD</t>
+  </si>
+  <si>
+    <t>1.023 samples/s/USD</t>
+  </si>
+  <si>
+    <t>0.00943 samples/s/PHP</t>
+  </si>
+  <si>
+    <t>0.01731 samples/s/PHP</t>
+  </si>
+  <si>
+    <t>YOLOV8n (Run 1)</t>
   </si>
   <si>
     <t>158.19 img/s</t>
   </si>
   <si>
-    <t>From training log (approx throughput)</t>
-  </si>
-  <si>
     <t>151.52 img/s</t>
   </si>
   <si>
     <t>12.64 Minutes</t>
   </si>
   <si>
-    <t>From training output (13m 18.9s)</t>
-  </si>
-  <si>
     <t>13.9 minutes</t>
   </si>
   <si>
-    <t>~3.7 GB (peak ~4.0 GB)</t>
-  </si>
-  <si>
-    <t>Task Manager + HWINFO</t>
-  </si>
-  <si>
-    <t>~3.6 GB</t>
-  </si>
-  <si>
-    <t>HWINFO “GPU Core Load Avg”</t>
-  </si>
-  <si>
     <t>~97%</t>
   </si>
   <si>
     <t>83.65 W</t>
   </si>
   <si>
-    <t>HWINFO GPU Power (avg)</t>
-  </si>
-  <si>
     <t>145.28 W</t>
   </si>
   <si>
@@ -334,18 +695,6 @@
     <t>1.04 img/s per Watt</t>
   </si>
   <si>
-    <t>Best mAP50–95</t>
-  </si>
-  <si>
-    <t>Primary detection metric (higher is better)</t>
-  </si>
-  <si>
-    <t>Price at time of purchase</t>
-  </si>
-  <si>
-    <t>Using ≈₱58/USD</t>
-  </si>
-  <si>
     <t>0.306 img/s per USD</t>
   </si>
   <si>
@@ -358,13 +707,82 @@
     <t>0.01166 img/s per PHP</t>
   </si>
   <si>
-    <t xml:space="preserve">YOLOV8m </t>
-  </si>
-  <si>
-    <t>YOLOV8m</t>
-  </si>
-  <si>
-    <t>640 x 640</t>
+    <t>YOLOV8n (Run 2)</t>
+  </si>
+  <si>
+    <t>158.79 img/s</t>
+  </si>
+  <si>
+    <t>153.22 img/s</t>
+  </si>
+  <si>
+    <t>12.52 Minutes</t>
+  </si>
+  <si>
+    <t>13.27 minutes</t>
+  </si>
+  <si>
+    <t>81.25 W</t>
+  </si>
+  <si>
+    <t>147.98 W</t>
+  </si>
+  <si>
+    <t>1.95 img/s/W</t>
+  </si>
+  <si>
+    <t>0.307 img/s/USD</t>
+  </si>
+  <si>
+    <t>0.697 img/s/USD</t>
+  </si>
+  <si>
+    <t>0.00529 img/s/PHP</t>
+  </si>
+  <si>
+    <t>0.01179 img/s/PHP</t>
+  </si>
+  <si>
+    <t>YOLOV8n (Run 3)</t>
+  </si>
+  <si>
+    <t>157.92 img/s</t>
+  </si>
+  <si>
+    <t>151.91 img/s</t>
+  </si>
+  <si>
+    <t>12.83 Minutes</t>
+  </si>
+  <si>
+    <t>13.8 minutes</t>
+  </si>
+  <si>
+    <t>84.92 W</t>
+  </si>
+  <si>
+    <t>144.38 W</t>
+  </si>
+  <si>
+    <t>1.86 img/s/W</t>
+  </si>
+  <si>
+    <t>1.05 img/s/W</t>
+  </si>
+  <si>
+    <t>0.305 img/s/USD</t>
+  </si>
+  <si>
+    <t>0.691 img/s/USD</t>
+  </si>
+  <si>
+    <t>0.00526 img/s/PHP</t>
+  </si>
+  <si>
+    <t>0.01169 img/s/PHP</t>
+  </si>
+  <si>
+    <t>YOLOV8m (Run1)</t>
   </si>
   <si>
     <t>50.73 imgs/s</t>
@@ -379,9 +797,6 @@
     <t>53.57 minutes</t>
   </si>
   <si>
-    <t>7.81 GB</t>
-  </si>
-  <si>
     <t>91%%</t>
   </si>
   <si>
@@ -407,6 +822,72 @@
   </si>
   <si>
     <t>0.0030 img/s per PHP</t>
+  </si>
+  <si>
+    <t>YOLOV8m (Run 2)</t>
+  </si>
+  <si>
+    <t>51.09 imgs/s</t>
+  </si>
+  <si>
+    <t>37.40 imgs/s</t>
+  </si>
+  <si>
+    <t>39.17 minutes</t>
+  </si>
+  <si>
+    <t>53.49 minutes</t>
+  </si>
+  <si>
+    <t>7.82 GB</t>
+  </si>
+  <si>
+    <t>125.77 W</t>
+  </si>
+  <si>
+    <t>184.19 W</t>
+  </si>
+  <si>
+    <t>0.415 img/s/W</t>
+  </si>
+  <si>
+    <t>0.203 img/s/W</t>
+  </si>
+  <si>
+    <t>0.0984 img/s/USD</t>
+  </si>
+  <si>
+    <t>0.170 img/s/USD</t>
+  </si>
+  <si>
+    <t>0.00170 img/s/PHP</t>
+  </si>
+  <si>
+    <t>0.00288 img/s/PHP</t>
+  </si>
+  <si>
+    <t>YOLOV8m (Run 3)</t>
+  </si>
+  <si>
+    <t>50.88 imgs/s</t>
+  </si>
+  <si>
+    <t>36.69 imgs/s</t>
+  </si>
+  <si>
+    <t>53.15 minutes</t>
+  </si>
+  <si>
+    <t>122.62 W</t>
+  </si>
+  <si>
+    <t>182.03 W</t>
+  </si>
+  <si>
+    <t>0.167 img/s/USD</t>
+  </si>
+  <si>
+    <t>0.00282 img/s/PHP</t>
   </si>
 </sst>
 </file>
@@ -416,7 +897,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="9">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -448,6 +929,21 @@
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="4">
@@ -532,7 +1028,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="29">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -561,22 +1057,49 @@
     <xf borderId="4" fillId="0" fontId="3" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="4" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="8" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="8" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -586,6 +1109,22 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -971,7 +1510,7 @@
       <c r="E11" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="11" t="s">
         <v>20</v>
       </c>
       <c r="G11" s="10" t="s">
@@ -992,7 +1531,7 @@
       <c r="E12" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="11" t="s">
         <v>24</v>
       </c>
       <c r="G12" s="10" t="s">
@@ -1025,7 +1564,7 @@
         <v>29</v>
       </c>
       <c r="B14" s="13">
-        <v>0.746</v>
+        <v>0.752</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>30</v>
@@ -1035,7 +1574,7 @@
         <v>29</v>
       </c>
       <c r="F14" s="13">
-        <v>0.819</v>
+        <v>0.8137</v>
       </c>
       <c r="G14" s="10" t="s">
         <v>30</v>
@@ -1076,7 +1615,7 @@
       <c r="E16" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="F16" s="14" t="s">
         <v>38</v>
       </c>
       <c r="G16" s="10"/>
@@ -1086,7 +1625,7 @@
         <v>39</v>
       </c>
       <c r="B17" s="13">
-        <v>0.2208</v>
+        <v>0.221</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>40</v>
@@ -1096,7 +1635,7 @@
         <v>39</v>
       </c>
       <c r="F17" s="13">
-        <v>0.2401</v>
+        <v>0.2405</v>
       </c>
       <c r="G17" s="10" t="s">
         <v>40</v>
@@ -1106,7 +1645,7 @@
       <c r="A18" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="14">
+      <c r="B18" s="15">
         <v>517.0</v>
       </c>
       <c r="C18" s="10" t="s">
@@ -1116,7 +1655,7 @@
       <c r="E18" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F18" s="14">
+      <c r="F18" s="15">
         <v>220.0</v>
       </c>
       <c r="G18" s="10" t="s">
@@ -1148,7 +1687,7 @@
       <c r="A20" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="11" t="s">
         <v>50</v>
       </c>
       <c r="C20" s="10"/>
@@ -1165,7 +1704,7 @@
       <c r="A21" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="11" t="s">
         <v>53</v>
       </c>
       <c r="C21" s="10"/>
@@ -1349,7 +1888,7 @@
       <c r="E31" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="F31" s="10" t="s">
+      <c r="F31" s="11" t="s">
         <v>65</v>
       </c>
       <c r="G31" s="10" t="s">
@@ -1370,7 +1909,7 @@
       <c r="E32" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F32" s="10" t="s">
+      <c r="F32" s="11" t="s">
         <v>67</v>
       </c>
       <c r="G32" s="10" t="s">
@@ -1391,7 +1930,7 @@
       <c r="E33" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F33" s="10" t="s">
+      <c r="F33" s="11" t="s">
         <v>68</v>
       </c>
       <c r="G33" s="10" t="s">
@@ -1402,21 +1941,21 @@
       <c r="A34" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="16">
-        <v>0.99</v>
+      <c r="B34" s="11" t="s">
+        <v>70</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F34" s="16">
-        <v>0.98</v>
+      <c r="F34" s="10" t="s">
+        <v>72</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35">
@@ -1424,20 +1963,20 @@
         <v>31</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F35" s="11" t="s">
-        <v>73</v>
+      <c r="F35" s="10" t="s">
+        <v>75</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36">
@@ -1445,17 +1984,17 @@
         <v>35</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="10" t="s">
         <v>35</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G36" s="10"/>
     </row>
@@ -1464,7 +2003,7 @@
         <v>39</v>
       </c>
       <c r="B37" s="11">
-        <v>0.9125</v>
+        <v>0.9182</v>
       </c>
       <c r="C37" s="10" t="s">
         <v>40</v>
@@ -1484,8 +2023,8 @@
       <c r="A38" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B38" s="14">
-        <v>517.0</v>
+      <c r="B38" s="15" t="s">
+        <v>79</v>
       </c>
       <c r="C38" s="10" t="s">
         <v>42</v>
@@ -1494,7 +2033,7 @@
       <c r="E38" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F38" s="14">
+      <c r="F38" s="15">
         <v>220.0</v>
       </c>
       <c r="G38" s="10" t="s">
@@ -1506,7 +2045,7 @@
         <v>44</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="C39" s="10" t="s">
         <v>46</v>
@@ -1515,8 +2054,8 @@
       <c r="E39" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="F39" s="15" t="s">
-        <v>48</v>
+      <c r="F39" s="10" t="s">
+        <v>81</v>
       </c>
       <c r="G39" s="10" t="s">
         <v>46</v>
@@ -1526,18 +2065,18 @@
       <c r="A40" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B40" s="17" t="s">
-        <v>77</v>
+      <c r="B40" s="10" t="s">
+        <v>82</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="F40" s="17" t="s">
-        <v>79</v>
+      <c r="F40" s="11" t="s">
+        <v>84</v>
       </c>
       <c r="G40" s="10"/>
     </row>
@@ -1545,18 +2084,18 @@
       <c r="A41" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B41" s="17" t="s">
-        <v>80</v>
+      <c r="B41" s="10" t="s">
+        <v>85</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="F41" s="17" t="s">
-        <v>82</v>
+      <c r="F41" s="15" t="s">
+        <v>87</v>
       </c>
       <c r="G41" s="10"/>
     </row>
@@ -1571,13 +2110,13 @@
     </row>
     <row r="43">
       <c r="A43" s="8" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="3"/>
       <c r="D43" s="4"/>
       <c r="E43" s="8" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="3"/>
@@ -1638,20 +2177,20 @@
         <v>56</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="11" t="s">
         <v>56</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="48">
@@ -1659,20 +2198,20 @@
         <v>11</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="11" t="s">
         <v>11</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="49">
@@ -1704,7 +2243,7 @@
         <v>30.0</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D50" s="4"/>
       <c r="E50" s="11" t="s">
@@ -1714,7 +2253,7 @@
         <v>30.0</v>
       </c>
       <c r="G50" s="11" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="51">
@@ -1722,20 +2261,20 @@
         <v>17</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D51" s="4"/>
       <c r="E51" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F51" s="11" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="G51" s="11" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="52">
@@ -1743,17 +2282,17 @@
         <v>21</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D52" s="4"/>
       <c r="E52" s="11" t="s">
         <v>21</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="G52" s="11"/>
     </row>
@@ -1762,41 +2301,41 @@
         <v>25</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D53" s="4"/>
       <c r="E53" s="11" t="s">
         <v>25</v>
       </c>
       <c r="F53" s="11" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="G53" s="11" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B54" s="16">
-        <v>0.66</v>
+      <c r="B54" s="11" t="s">
+        <v>105</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="D54" s="4"/>
       <c r="E54" s="11" t="s">
         <v>29</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="55">
@@ -1804,20 +2343,20 @@
         <v>31</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="D55" s="4"/>
       <c r="E55" s="11" t="s">
         <v>31</v>
       </c>
       <c r="F55" s="11" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="G55" s="11" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="56">
@@ -1825,7 +2364,7 @@
         <v>35</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C56" s="11"/>
       <c r="D56" s="4"/>
@@ -1833,46 +2372,46 @@
         <v>35</v>
       </c>
       <c r="F56" s="11" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="G56" s="11"/>
     </row>
     <row r="57">
       <c r="A57" s="11" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B57" s="11">
         <v>0.3284</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="D57" s="4"/>
       <c r="E57" s="11" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="F57" s="11">
         <v>0.3284</v>
       </c>
       <c r="G57" s="11" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B58" s="14">
+      <c r="B58" s="15">
         <v>517.0</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="D58" s="4"/>
       <c r="E58" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F58" s="14">
+      <c r="F58" s="15">
         <v>220.0</v>
       </c>
       <c r="G58" s="10" t="s">
@@ -1884,17 +2423,17 @@
         <v>44</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>45</v>
+        <v>116</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="D59" s="4"/>
       <c r="E59" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="F59" s="15" t="s">
-        <v>48</v>
+      <c r="F59" s="16" t="s">
+        <v>81</v>
       </c>
       <c r="G59" s="10" t="s">
         <v>46</v>
@@ -1905,7 +2444,7 @@
         <v>49</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="C60" s="11"/>
       <c r="D60" s="4"/>
@@ -1913,7 +2452,7 @@
         <v>49</v>
       </c>
       <c r="F60" s="10" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="G60" s="10"/>
     </row>
@@ -1922,7 +2461,7 @@
         <v>52</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="C61" s="11"/>
       <c r="D61" s="4"/>
@@ -1930,28 +2469,28 @@
         <v>52</v>
       </c>
       <c r="F61" s="10" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="G61" s="10"/>
     </row>
     <row r="62">
-      <c r="A62" s="18"/>
-      <c r="B62" s="18"/>
-      <c r="C62" s="18"/>
-      <c r="D62" s="19"/>
-      <c r="E62" s="18"/>
-      <c r="F62" s="18"/>
-      <c r="G62" s="18"/>
+      <c r="A62" s="17"/>
+      <c r="B62" s="17"/>
+      <c r="C62" s="17"/>
+      <c r="D62" s="18"/>
+      <c r="E62" s="17"/>
+      <c r="F62" s="17"/>
+      <c r="G62" s="17"/>
     </row>
     <row r="63">
       <c r="A63" s="8" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" s="3"/>
       <c r="D63" s="4"/>
       <c r="E63" s="8" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="F63" s="2"/>
       <c r="G63" s="3"/>
@@ -2012,20 +2551,20 @@
         <v>56</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D67" s="4"/>
       <c r="E67" s="11" t="s">
         <v>56</v>
       </c>
       <c r="F67" s="11" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="G67" s="11" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="68">
@@ -2033,20 +2572,20 @@
         <v>11</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D68" s="4"/>
       <c r="E68" s="11" t="s">
         <v>11</v>
       </c>
       <c r="F68" s="11" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="G68" s="11" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="69">
@@ -2078,7 +2617,7 @@
         <v>30.0</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D70" s="4"/>
       <c r="E70" s="11" t="s">
@@ -2088,7 +2627,7 @@
         <v>30.0</v>
       </c>
       <c r="G70" s="11" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="71">
@@ -2096,20 +2635,20 @@
         <v>17</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D71" s="4"/>
       <c r="E71" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F71" s="10" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="G71" s="11" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="72">
@@ -2117,17 +2656,17 @@
         <v>21</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D72" s="4"/>
       <c r="E72" s="11" t="s">
         <v>21</v>
       </c>
       <c r="F72" s="10" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="G72" s="11"/>
     </row>
@@ -2136,10 +2675,10 @@
         <v>25</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D73" s="4"/>
       <c r="E73" s="11" t="s">
@@ -2149,28 +2688,28 @@
         <v>68</v>
       </c>
       <c r="G73" s="11" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B74" s="11" t="s">
-        <v>123</v>
+      <c r="B74" s="19">
+        <v>0.91</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="D74" s="4"/>
       <c r="E74" s="11" t="s">
         <v>29</v>
       </c>
       <c r="F74" s="13">
-        <v>0.903</v>
+        <v>0.9055</v>
       </c>
       <c r="G74" s="11" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="75">
@@ -2178,75 +2717,75 @@
         <v>31</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="D75" s="4"/>
       <c r="E75" s="11" t="s">
         <v>31</v>
       </c>
       <c r="F75" s="11" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="G75" s="11" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B76" s="17" t="s">
-        <v>126</v>
+      <c r="B76" s="14" t="s">
+        <v>132</v>
       </c>
       <c r="C76" s="11"/>
       <c r="D76" s="4"/>
       <c r="E76" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="F76" s="17" t="s">
-        <v>127</v>
+      <c r="F76" s="14" t="s">
+        <v>133</v>
       </c>
       <c r="G76" s="11"/>
     </row>
     <row r="77">
       <c r="A77" s="11" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B77" s="11">
         <v>0.3284</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="D77" s="4"/>
       <c r="E77" s="11" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="F77" s="11">
-        <v>0.3284</v>
+        <v>0.3286</v>
       </c>
       <c r="G77" s="11" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B78" s="14">
+      <c r="B78" s="15">
         <v>517.0</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="D78" s="4"/>
       <c r="E78" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F78" s="14">
+      <c r="F78" s="15">
         <v>220.0</v>
       </c>
       <c r="G78" s="10" t="s">
@@ -2258,17 +2797,17 @@
         <v>44</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>45</v>
+        <v>116</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="D79" s="4"/>
       <c r="E79" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="F79" s="15" t="s">
-        <v>48</v>
+      <c r="F79" s="16" t="s">
+        <v>81</v>
       </c>
       <c r="G79" s="10" t="s">
         <v>46</v>
@@ -2279,7 +2818,7 @@
         <v>49</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C80" s="11"/>
       <c r="D80" s="4"/>
@@ -2287,7 +2826,7 @@
         <v>49</v>
       </c>
       <c r="F80" s="10" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="G80" s="10"/>
     </row>
@@ -2296,7 +2835,7 @@
         <v>52</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="C81" s="11"/>
       <c r="D81" s="4"/>
@@ -2304,18 +2843,18 @@
         <v>52</v>
       </c>
       <c r="F81" s="10" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="G81" s="10"/>
     </row>
     <row r="82">
-      <c r="A82" s="18"/>
-      <c r="B82" s="18"/>
-      <c r="C82" s="18"/>
-      <c r="D82" s="19"/>
-      <c r="E82" s="18"/>
-      <c r="F82" s="18"/>
-      <c r="G82" s="18"/>
+      <c r="A82" s="17"/>
+      <c r="B82" s="17"/>
+      <c r="C82" s="17"/>
+      <c r="D82" s="18"/>
+      <c r="E82" s="17"/>
+      <c r="F82" s="17"/>
+      <c r="G82" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -2332,4 +2871,4906 @@
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="25.38"/>
+    <col customWidth="1" min="2" max="2" width="42.13"/>
+    <col customWidth="1" min="3" max="3" width="33.88"/>
+    <col customWidth="1" min="4" max="4" width="2.75"/>
+    <col customWidth="1" min="5" max="5" width="25.38"/>
+    <col customWidth="1" min="6" max="6" width="42.13"/>
+    <col customWidth="1" min="7" max="7" width="33.88"/>
+    <col customWidth="1" min="8" max="8" width="3.38"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="32.25" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" ht="31.5" customHeight="1">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="5"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="7"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="12"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="11">
+        <v>8.0</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="11">
+        <v>8.0</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="11">
+        <v>30.0</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="11">
+        <v>30.0</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="13">
+        <v>0.746</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="13">
+        <v>0.819</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="G16" s="10"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="13">
+        <v>0.2208</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" s="13">
+        <v>0.2401</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="15">
+        <v>517.0</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" s="15">
+        <v>220.0</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="G20" s="10"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="10"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="G21" s="10"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="5"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="7"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="E26" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="12"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" s="12"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" s="11">
+        <v>8.0</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="11">
+        <v>8.0</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" s="11">
+        <v>30.0</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" s="4"/>
+      <c r="E29" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" s="11">
+        <v>30.0</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="4"/>
+      <c r="E30" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D31" s="4"/>
+      <c r="E31" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" s="4"/>
+      <c r="E32" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" s="13">
+        <v>0.734</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33" s="4"/>
+      <c r="E33" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F33" s="13">
+        <v>0.8291</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34" s="4"/>
+      <c r="E34" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D35" s="4"/>
+      <c r="E35" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G35" s="10"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" s="13">
+        <v>0.2213</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D36" s="4"/>
+      <c r="E36" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F36" s="13">
+        <v>0.2412</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" s="15">
+        <v>517.0</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D37" s="4"/>
+      <c r="E37" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" s="15">
+        <v>220.0</v>
+      </c>
+      <c r="G37" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D38" s="4"/>
+      <c r="E38" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F38" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="C39" s="10"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="G39" s="10"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="C40" s="10"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="G40" s="10"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="F42" s="2"/>
+      <c r="G42" s="3"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="5"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="7"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" s="4"/>
+      <c r="E44" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G44" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" s="4"/>
+      <c r="E45" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F45" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G45" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" s="12"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F46" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G46" s="12"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B47" s="11">
+        <v>8.0</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D47" s="4"/>
+      <c r="E47" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47" s="11">
+        <v>8.0</v>
+      </c>
+      <c r="G47" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B48" s="11">
+        <v>30.0</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D48" s="4"/>
+      <c r="E48" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F48" s="11">
+        <v>30.0</v>
+      </c>
+      <c r="G48" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D49" s="4"/>
+      <c r="E49" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F49" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="G49" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D50" s="4"/>
+      <c r="E50" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F50" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="G50" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D51" s="4"/>
+      <c r="E51" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F51" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="G51" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B52" s="13">
+        <v>0.7761</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D52" s="4"/>
+      <c r="E52" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F52" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="G52" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D53" s="4"/>
+      <c r="E53" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F53" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="G53" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B54" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D54" s="4"/>
+      <c r="E54" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F54" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="G54" s="10"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B55" s="13">
+        <v>0.2208</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D55" s="4"/>
+      <c r="E55" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F55" s="13">
+        <v>0.2401</v>
+      </c>
+      <c r="G55" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B56" s="15">
+        <v>517.0</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D56" s="4"/>
+      <c r="E56" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F56" s="15">
+        <v>220.0</v>
+      </c>
+      <c r="G56" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D57" s="4"/>
+      <c r="E57" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F57" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="G57" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B58" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="C58" s="10"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F58" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="G58" s="10"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B59" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="C59" s="10"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F59" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="G59" s="10"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="17"/>
+      <c r="B60" s="17"/>
+      <c r="C60" s="17"/>
+      <c r="D60" s="18"/>
+      <c r="E60" s="17"/>
+      <c r="F60" s="17"/>
+      <c r="G60" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="E1:G2"/>
+    <mergeCell ref="A4:C5"/>
+    <mergeCell ref="E4:G5"/>
+    <mergeCell ref="A23:C24"/>
+    <mergeCell ref="E23:G24"/>
+    <mergeCell ref="A42:C43"/>
+    <mergeCell ref="E42:G43"/>
+  </mergeCells>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="25.38"/>
+    <col customWidth="1" min="2" max="2" width="42.13"/>
+    <col customWidth="1" min="3" max="3" width="33.88"/>
+    <col customWidth="1" min="4" max="4" width="2.75"/>
+    <col customWidth="1" min="5" max="5" width="25.38"/>
+    <col customWidth="1" min="6" max="6" width="42.13"/>
+    <col customWidth="1" min="7" max="7" width="33.88"/>
+    <col customWidth="1" min="8" max="8" width="3.38"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="32.25" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="4"/>
+    </row>
+    <row r="2" ht="31.5" customHeight="1">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="5"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="11">
+        <v>128.0</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="11">
+        <v>128.0</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="11">
+        <v>30.0</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="11">
+        <v>30.0</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="H14" s="4"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="19">
+        <v>0.99</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="19">
+        <v>0.98</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="H16" s="4"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="G17" s="10"/>
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="11">
+        <v>0.9125</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="11">
+        <v>0.9124</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H18" s="4"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="15">
+        <v>517.0</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" s="15">
+        <v>220.0</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H19" s="4"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" s="4"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="G21" s="10"/>
+      <c r="H21" s="4"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="G22" s="10"/>
+      <c r="H22" s="4"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="F24" s="2"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="4"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="5"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="4"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="E26" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H26" s="4"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H27" s="4"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="H28" s="4"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="4"/>
+      <c r="E29" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="H29" s="4"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" s="11">
+        <v>128.0</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="4"/>
+      <c r="E30" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="11">
+        <v>128.0</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H30" s="4"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" s="11">
+        <v>30.0</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D31" s="4"/>
+      <c r="E31" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31" s="11">
+        <v>30.0</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H31" s="4"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D32" s="4"/>
+      <c r="E32" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="H32" s="4"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D33" s="4"/>
+      <c r="E33" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H33" s="4"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D34" s="4"/>
+      <c r="E34" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="H34" s="4"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B35" s="19">
+        <v>0.99</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D35" s="4"/>
+      <c r="E35" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F35" s="19">
+        <v>0.97</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H35" s="4"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D36" s="4"/>
+      <c r="E36" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="H36" s="4"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D37" s="4"/>
+      <c r="E37" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="G37" s="10"/>
+      <c r="H37" s="4"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" s="11">
+        <v>0.9217</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D38" s="4"/>
+      <c r="E38" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F38" s="11">
+        <v>0.9123</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H38" s="4"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" s="15">
+        <v>517.0</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D39" s="4"/>
+      <c r="E39" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" s="15">
+        <v>220.0</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H39" s="4"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D40" s="4"/>
+      <c r="E40" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F40" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="G40" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" s="4"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D41" s="4"/>
+      <c r="E41" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F41" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="G41" s="10"/>
+      <c r="H41" s="4"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D42" s="4"/>
+      <c r="E42" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F42" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="G42" s="10"/>
+      <c r="H42" s="4"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="F44" s="2"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="4"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="5"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="4"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" s="4"/>
+      <c r="E46" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F46" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G46" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H46" s="4"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" s="4"/>
+      <c r="E47" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F47" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G47" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H47" s="4"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D48" s="4"/>
+      <c r="E48" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F48" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="G48" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="H48" s="4"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D49" s="4"/>
+      <c r="E49" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F49" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G49" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="H49" s="4"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B50" s="11">
+        <v>128.0</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D50" s="4"/>
+      <c r="E50" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F50" s="11">
+        <v>128.0</v>
+      </c>
+      <c r="G50" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H50" s="4"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B51" s="11">
+        <v>30.0</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D51" s="4"/>
+      <c r="E51" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F51" s="11">
+        <v>30.0</v>
+      </c>
+      <c r="G51" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H51" s="4"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D52" s="4"/>
+      <c r="E52" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F52" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="G52" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="H52" s="4"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D53" s="4"/>
+      <c r="E53" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F53" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="G53" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H53" s="4"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D54" s="4"/>
+      <c r="E54" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F54" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="G54" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="H54" s="4"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B55" s="19">
+        <v>0.98</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D55" s="4"/>
+      <c r="E55" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F55" s="19">
+        <v>0.99</v>
+      </c>
+      <c r="G55" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H55" s="4"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D56" s="4"/>
+      <c r="E56" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F56" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="G56" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="H56" s="4"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B57" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D57" s="4"/>
+      <c r="E57" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F57" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="G57" s="10"/>
+      <c r="H57" s="4"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B58" s="11">
+        <v>0.9203</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D58" s="4"/>
+      <c r="E58" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F58" s="11">
+        <v>0.9125</v>
+      </c>
+      <c r="G58" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H58" s="4"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B59" s="15">
+        <v>517.0</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D59" s="4"/>
+      <c r="E59" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F59" s="15">
+        <v>220.0</v>
+      </c>
+      <c r="G59" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H59" s="4"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D60" s="4"/>
+      <c r="E60" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F60" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="G60" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" s="4"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B61" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D61" s="4"/>
+      <c r="E61" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F61" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="G61" s="10"/>
+      <c r="H61" s="4"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B62" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D62" s="18"/>
+      <c r="E62" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F62" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="G62" s="10"/>
+      <c r="H62" s="18"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="4"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="E1:G2"/>
+    <mergeCell ref="A4:C5"/>
+    <mergeCell ref="E4:G5"/>
+    <mergeCell ref="A24:C25"/>
+    <mergeCell ref="E24:G25"/>
+    <mergeCell ref="A44:C45"/>
+    <mergeCell ref="E44:G45"/>
+  </mergeCells>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="25.38"/>
+    <col customWidth="1" min="2" max="2" width="42.13"/>
+    <col customWidth="1" min="3" max="3" width="33.88"/>
+    <col customWidth="1" min="4" max="4" width="2.75"/>
+    <col customWidth="1" min="5" max="5" width="25.38"/>
+    <col customWidth="1" min="6" max="6" width="42.13"/>
+    <col customWidth="1" min="7" max="7" width="33.88"/>
+    <col customWidth="1" min="8" max="8" width="3.38"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="32.25" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="4"/>
+    </row>
+    <row r="2" ht="31.5" customHeight="1">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="5"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="23">
+        <v>16.0</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="11">
+        <v>16.0</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="23">
+        <v>30.0</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="11">
+        <v>30.0</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="G13" s="11"/>
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="H14" s="4"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="25">
+        <v>0.66</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="H16" s="4"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="C17" s="22"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="G17" s="11"/>
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="B18" s="23">
+        <v>0.3284</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F18" s="11">
+        <v>0.3284</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="H18" s="4"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="26">
+        <v>517.0</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" s="15">
+        <v>220.0</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H19" s="4"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" s="4"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="C21" s="22"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="G21" s="10"/>
+      <c r="H21" s="4"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>228</v>
+      </c>
+      <c r="C22" s="22"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="G22" s="10"/>
+      <c r="H22" s="4"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="F24" s="2"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="4"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="5"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="4"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="E26" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H26" s="4"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H27" s="4"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="H28" s="4"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="D29" s="4"/>
+      <c r="E29" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="H29" s="4"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" s="23">
+        <v>16.0</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="4"/>
+      <c r="E30" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="11">
+        <v>16.0</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H30" s="4"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" s="23">
+        <v>30.0</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="D31" s="4"/>
+      <c r="E31" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31" s="11">
+        <v>30.0</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="H31" s="4"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" s="24" t="s">
+        <v>231</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="D32" s="4"/>
+      <c r="E32" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="H32" s="4"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" s="24" t="s">
+        <v>233</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="D33" s="4"/>
+      <c r="E33" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="G33" s="11"/>
+      <c r="H33" s="4"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="D34" s="4"/>
+      <c r="E34" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="H34" s="4"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B35" s="28">
+        <v>0.63</v>
+      </c>
+      <c r="C35" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="D35" s="4"/>
+      <c r="E35" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="H35" s="4"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B36" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="C36" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="D36" s="4"/>
+      <c r="E36" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="G36" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="H36" s="4"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="C37" s="22"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F37" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="G37" s="11"/>
+      <c r="H37" s="4"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="B38" s="23">
+        <v>0.3284</v>
+      </c>
+      <c r="C38" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="D38" s="4"/>
+      <c r="E38" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F38" s="11">
+        <v>0.3284</v>
+      </c>
+      <c r="G38" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="H38" s="4"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" s="26">
+        <v>517.0</v>
+      </c>
+      <c r="C39" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="D39" s="4"/>
+      <c r="E39" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" s="15">
+        <v>220.0</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H39" s="4"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="D40" s="4"/>
+      <c r="E40" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F40" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="G40" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" s="4"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="C41" s="22"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F41" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="G41" s="10"/>
+      <c r="H41" s="4"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="C42" s="22"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F42" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="G42" s="10"/>
+      <c r="H42" s="4"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="F44" s="2"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="4"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="5"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="4"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" s="4"/>
+      <c r="E46" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F46" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G46" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H46" s="4"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" s="4"/>
+      <c r="E47" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F47" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G47" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H47" s="4"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D48" s="4"/>
+      <c r="E48" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F48" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="G48" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="H48" s="4"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D49" s="4"/>
+      <c r="E49" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F49" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="G49" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="H49" s="4"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B50" s="11">
+        <v>16.0</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D50" s="4"/>
+      <c r="E50" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F50" s="11">
+        <v>16.0</v>
+      </c>
+      <c r="G50" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H50" s="4"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B51" s="11">
+        <v>30.0</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="D51" s="4"/>
+      <c r="E51" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F51" s="11">
+        <v>30.0</v>
+      </c>
+      <c r="G51" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="H51" s="4"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D52" s="4"/>
+      <c r="E52" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F52" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="G52" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="H52" s="4"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="D53" s="4"/>
+      <c r="E53" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F53" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="G53" s="11"/>
+      <c r="H53" s="4"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B54" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="D54" s="4"/>
+      <c r="E54" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F54" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="G54" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="H54" s="4"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B55" s="19">
+        <v>0.66</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="D55" s="4"/>
+      <c r="E55" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F55" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="G55" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="H55" s="4"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="D56" s="4"/>
+      <c r="E56" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F56" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="G56" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="H56" s="4"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B57" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="C57" s="11"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F57" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="G57" s="11"/>
+      <c r="H57" s="4"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="B58" s="11">
+        <v>0.3284</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="D58" s="4"/>
+      <c r="E58" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F58" s="11">
+        <v>0.3284</v>
+      </c>
+      <c r="G58" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="H58" s="4"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B59" s="15">
+        <v>517.0</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="D59" s="4"/>
+      <c r="E59" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F59" s="15">
+        <v>220.0</v>
+      </c>
+      <c r="G59" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H59" s="4"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="D60" s="4"/>
+      <c r="E60" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F60" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="G60" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" s="4"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B61" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="C61" s="11"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F61" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="G61" s="10"/>
+      <c r="H61" s="4"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B62" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="C62" s="11"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F62" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="G62" s="10"/>
+      <c r="H62" s="4"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="17"/>
+      <c r="B63" s="17"/>
+      <c r="C63" s="17"/>
+      <c r="D63" s="18"/>
+      <c r="E63" s="17"/>
+      <c r="F63" s="17"/>
+      <c r="G63" s="17"/>
+      <c r="H63" s="18"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="E1:G2"/>
+    <mergeCell ref="A4:C5"/>
+    <mergeCell ref="E4:G5"/>
+    <mergeCell ref="A24:C25"/>
+    <mergeCell ref="E24:G25"/>
+    <mergeCell ref="A44:C45"/>
+    <mergeCell ref="E44:G45"/>
+  </mergeCells>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="25.38"/>
+    <col customWidth="1" min="2" max="2" width="42.13"/>
+    <col customWidth="1" min="3" max="3" width="33.88"/>
+    <col customWidth="1" min="4" max="4" width="2.75"/>
+    <col customWidth="1" min="5" max="5" width="25.38"/>
+    <col customWidth="1" min="6" max="6" width="42.13"/>
+    <col customWidth="1" min="7" max="7" width="33.88"/>
+    <col customWidth="1" min="8" max="8" width="3.38"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="32.25" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="4"/>
+    </row>
+    <row r="2" ht="31.5" customHeight="1">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="18"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="5"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="11">
+        <v>12.0</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="11">
+        <v>12.0</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="11">
+        <v>30.0</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="11">
+        <v>30.0</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="G13" s="11"/>
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="H14" s="4"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="13">
+        <v>0.903</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="H16" s="4"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="C17" s="11"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="G17" s="11"/>
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="B18" s="11">
+        <v>0.3284</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F18" s="11">
+        <v>0.3284</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="H18" s="4"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="15">
+        <v>517.0</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" s="15">
+        <v>220.0</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H19" s="4"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" s="4"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="C21" s="11"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="G21" s="10"/>
+      <c r="H21" s="4"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="C22" s="11"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="G22" s="10"/>
+      <c r="H22" s="4"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="17"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="18"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="F24" s="2"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="4"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="5"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="4"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="E26" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H26" s="4"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H27" s="4"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="H28" s="4"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D29" s="4"/>
+      <c r="E29" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="H29" s="4"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" s="11">
+        <v>12.0</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="4"/>
+      <c r="E30" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="11">
+        <v>12.0</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H30" s="4"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" s="11">
+        <v>30.0</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="D31" s="4"/>
+      <c r="E31" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31" s="11">
+        <v>30.0</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="H31" s="4"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D32" s="4"/>
+      <c r="E32" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="H32" s="4"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="D33" s="4"/>
+      <c r="E33" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="G33" s="11"/>
+      <c r="H33" s="4"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="D34" s="4"/>
+      <c r="E34" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="H34" s="4"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B35" s="19">
+        <v>0.9</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="D35" s="4"/>
+      <c r="E35" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F35" s="13">
+        <v>0.9124</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="H35" s="4"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="D36" s="4"/>
+      <c r="E36" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="G36" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="H36" s="4"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="C37" s="11"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F37" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="G37" s="11"/>
+      <c r="H37" s="4"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="B38" s="11">
+        <v>0.3284</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="D38" s="4"/>
+      <c r="E38" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F38" s="11">
+        <v>0.3289</v>
+      </c>
+      <c r="G38" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="H38" s="4"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" s="15">
+        <v>517.0</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="D39" s="4"/>
+      <c r="E39" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" s="15">
+        <v>220.0</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H39" s="4"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="D40" s="4"/>
+      <c r="E40" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F40" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="G40" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" s="4"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="C41" s="11"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F41" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="G41" s="10"/>
+      <c r="H41" s="4"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="C42" s="11"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F42" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="G42" s="10"/>
+      <c r="H42" s="4"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="17"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="18"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="F44" s="2"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="4"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="5"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="4"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" s="4"/>
+      <c r="E46" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F46" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G46" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H46" s="4"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" s="4"/>
+      <c r="E47" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F47" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G47" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H47" s="4"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D48" s="4"/>
+      <c r="E48" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F48" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="G48" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="H48" s="4"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D49" s="4"/>
+      <c r="E49" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F49" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="G49" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="H49" s="4"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B50" s="11">
+        <v>12.0</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D50" s="4"/>
+      <c r="E50" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F50" s="11">
+        <v>12.0</v>
+      </c>
+      <c r="G50" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H50" s="4"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B51" s="11">
+        <v>30.0</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="D51" s="4"/>
+      <c r="E51" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F51" s="11">
+        <v>30.0</v>
+      </c>
+      <c r="G51" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="H51" s="4"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D52" s="4"/>
+      <c r="E52" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F52" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="G52" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="H52" s="4"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="D53" s="4"/>
+      <c r="E53" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F53" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="G53" s="11"/>
+      <c r="H53" s="4"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="D54" s="4"/>
+      <c r="E54" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F54" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="G54" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="H54" s="4"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B55" s="19">
+        <v>0.92</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="D55" s="4"/>
+      <c r="E55" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F55" s="13">
+        <v>0.901</v>
+      </c>
+      <c r="G55" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="H55" s="4"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="D56" s="4"/>
+      <c r="E56" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F56" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="G56" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="H56" s="4"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B57" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="C57" s="11"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F57" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="G57" s="11"/>
+      <c r="H57" s="4"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="B58" s="11">
+        <v>0.3284</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="D58" s="4"/>
+      <c r="E58" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F58" s="11">
+        <v>0.3284</v>
+      </c>
+      <c r="G58" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="H58" s="4"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B59" s="15">
+        <v>517.0</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="D59" s="4"/>
+      <c r="E59" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F59" s="15">
+        <v>220.0</v>
+      </c>
+      <c r="G59" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H59" s="4"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="D60" s="4"/>
+      <c r="E60" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F60" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="G60" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" s="4"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="C61" s="11"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F61" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="G61" s="10"/>
+      <c r="H61" s="4"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="C62" s="11"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F62" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="G62" s="10"/>
+      <c r="H62" s="4"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="17"/>
+      <c r="B63" s="17"/>
+      <c r="C63" s="17"/>
+      <c r="D63" s="18"/>
+      <c r="E63" s="17"/>
+      <c r="F63" s="17"/>
+      <c r="G63" s="17"/>
+      <c r="H63" s="18"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="E1:G2"/>
+    <mergeCell ref="A4:C5"/>
+    <mergeCell ref="E4:G5"/>
+    <mergeCell ref="A24:C25"/>
+    <mergeCell ref="E24:G25"/>
+    <mergeCell ref="A44:C45"/>
+    <mergeCell ref="E44:G45"/>
+  </mergeCells>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>